--- a/4G Master Sheet.xlsx
+++ b/4G Master Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ODS7493\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B64ECCE-FDDA-4585-90B1-F4E073FE7D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DC3A99-A811-43F3-92D3-8399C57C6C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{54EF11C2-A495-4136-AF6D-5CDE6C38E7F1}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="131">
   <si>
     <t>Test Case</t>
   </si>
@@ -226,57 +226,6 @@
     <t>Static CSFB MT</t>
   </si>
   <si>
-    <t>Serving Cell LAC</t>
-  </si>
-  <si>
-    <t>Tracking Area Code (16bits)</t>
-  </si>
-  <si>
-    <t>Serving Cell DL EARFCN</t>
-  </si>
-  <si>
-    <t>Serving Cell Identity</t>
-  </si>
-  <si>
-    <t>PA Value</t>
-  </si>
-  <si>
-    <t>PB Value</t>
-  </si>
-  <si>
-    <t>Serving Cell RSRP (dBm)</t>
-  </si>
-  <si>
-    <t>Serving Cell RS SINR (dB)</t>
-  </si>
-  <si>
-    <t>RRC Connection Request/RRC Connection Setup Complete</t>
-  </si>
-  <si>
-    <t>RRC Connection Drop Rate</t>
-  </si>
-  <si>
-    <t>RRC Connection Setup Time</t>
-  </si>
-  <si>
-    <t>PDSCH Phy Throughput (kbps)</t>
-  </si>
-  <si>
-    <t>CQI CW 0 Carrier 1/MCS Index 0|Sort By: MCS 0 PDF (%)|Top #1/Number of PDSCH Resource Blocks</t>
-  </si>
-  <si>
-    <t>CQI CW 0 Carrier 1/PUSCH MCS C1/Number of PUSCH Resource Blocks</t>
-  </si>
-  <si>
-    <t>PUSCH Phy Throughput (kbps)</t>
-  </si>
-  <si>
-    <t>LTE Intra Site Handover Rate</t>
-  </si>
-  <si>
-    <t>LTE Inter Site Handover Rate</t>
-  </si>
-  <si>
     <t>EUTRAN Inter-frequency Handover/EUTRAN Inter-frequency Handover Failed</t>
   </si>
   <si>
@@ -302,33 +251,6 @@
   </si>
   <si>
     <t>Cell Reselection Priority 4G</t>
-  </si>
-  <si>
-    <t>EUTRAN Attach Setup Time sec</t>
-  </si>
-  <si>
-    <t>EUTRAN Attach Success Rate</t>
-  </si>
-  <si>
-    <t>Detach Procedure Setup Time</t>
-  </si>
-  <si>
-    <t>EUTRAN Detach Request/EUTRAN Detach Accept</t>
-  </si>
-  <si>
-    <t>Ping Roundtrip Time ms</t>
-  </si>
-  <si>
-    <t>MO CSFB Call Setup Time (ms)</t>
-  </si>
-  <si>
-    <t>MT CSFB Call Setup Time (ms)</t>
-  </si>
-  <si>
-    <t>Voice CSFB Setup Success Rate</t>
-  </si>
-  <si>
-    <t>voice Dropped Call Rate</t>
   </si>
   <si>
     <t>Location Area Update During MO CSFB Call Setup</t>
@@ -421,18 +343,9 @@
     <t>Static Video call MO</t>
   </si>
   <si>
-    <t>MO Session Setup Delay</t>
-  </si>
-  <si>
-    <t>MT Session Setup Delay</t>
-  </si>
-  <si>
     <t>SRVCC Handover/SRVCC Handover Failure</t>
   </si>
   <si>
-    <t>MO Session Setup Success Rate</t>
-  </si>
-  <si>
     <t>LTE Inter Site Handover (Reconfig to Complete) ms</t>
   </si>
   <si>
@@ -445,12 +358,6 @@
     <t>No Audio Received</t>
   </si>
   <si>
-    <t>MR-DC DRB QCI (Combined)</t>
-  </si>
-  <si>
-    <t>MO Session Drop Rate</t>
-  </si>
-  <si>
     <t>Circle</t>
   </si>
   <si>
@@ -464,6 +371,90 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>The peak value is not meeting the acceptance criteria. Please redo the static test in the site’s main lobe with good coverage, and use the Okhla Speedtest while running the script.</t>
+  </si>
+  <si>
+    <t>PB value is not captured, kindly create new logfiles and verify PB value.</t>
+  </si>
+  <si>
+    <t>PA value is not captured, kindly create new logfiles and verify PB value.</t>
+  </si>
+  <si>
+    <t>It appears that the PCI recorded in the site database does not match the actual serving PCI observed on the site, or the failed sector has no corresponding drive data. Request you to please verify the serving cells in the DL drive along with the PCI details in the site database.</t>
+  </si>
+  <si>
+    <t>Session Setup Success Rate failed due to RRC/S1 signaling issues, poor RF conditions, PRACH failures, TAC mismatch, or MME congestion. Verify RF coverage, PRACH performance, S1 link stability, TAC configuration, and MME capacity to improve success rate. Exclude ATDT in failed Sector and Redo again.</t>
+  </si>
+  <si>
+    <t>Session Abnormal Release Rate failed due to RLF, poor RF conditions, S1/backhaul instability, handover failures, or hardware issues. Improve RF coverage, verify S1 link, optimize HO parameters, and fix hardware/transport faults to reduce abnormal releases.Exclude ATDT in failed Sector and Redo again.</t>
+  </si>
+  <si>
+    <t>Low CQI, Peak MCS, or RB Allocation due to poor RF conditions, interference, limited PRBs, scheduler restrictions, or hardware issues. Improve SINR, optimize antenna parameters, reduce interference,  Exclude the logfile of DL Static in Failed Sector and verify the recording.</t>
+  </si>
+  <si>
+    <t>Low UL CQI/MCS/RB Allocation caused by poor UL RF conditions, high UL interference, insufficient transmit power, scheduler limits, or hardware/feeder issues. Improve UL SINR, optimize power control, fix hardware faults, and Exclude the logfile of Failed Sector and Redo test in clear LOS conditions.</t>
+  </si>
+  <si>
+    <t>The peak value is not meeting the acceptance criteria. Please redo the static test in the site’s main lobe with strong coverage. While performing the UL static test, start uploading a long video on YouTube to ensure proper uplink loading.</t>
+  </si>
+  <si>
+    <t>Intra-site HO Rate failed due to coverage imbalance, poor RF conditions, missing/wrong neighbor configuration, improper HO parameters, or hardware/resource issues. Optimize RF, verify neighbors and HO settings, and resolve hardware or congestion problems to achieve successful intra-site handovers.</t>
+  </si>
+  <si>
+    <t>Inter-site HO Rate failed due to weak boundary coverage, missing/wrong neighbor configuration, delayed HO parameters, X2/S1 instability, congestion, or hardware issues. Optimize RF overlap, verify neighbors and X2 link, tune mobility settings, and resolve congestion/hardware faults.</t>
+  </si>
+  <si>
+    <t>Verify that the Attach time is within the acceptance criteria. Exclude the ATDT logfile for the failed sector and redo the test. Ensure that a download session is running in the background to achieve a faster attach.</t>
+  </si>
+  <si>
+    <t>Verify that the Attach Attempts match the Attach Success count. If any attach failures are observed, please exclude those logs and redo the test accordingly.</t>
+  </si>
+  <si>
+    <t>The Detach Request count is higher than the Detach Accept count. The acceptance criteria require a 100 percent match. Please exclude this logfile, create a new one, and ensure that the Detach Request equals the Detach Accept in the Event tab.</t>
+  </si>
+  <si>
+    <t>Exclude the current logfile and create a new one. Ensure that the Detach Request matches the Detach Accept. Verify this in the Event tab of AZQ before saving the logfile</t>
+  </si>
+  <si>
+    <t>The Ping is above the acceptance criteria , Kinldy Exclud the logfile and Create new and verify the ping should bhe 40 to 50 ms , before saving the logfile</t>
+  </si>
+  <si>
+    <t>MO CSFB Call Setup Time (ms) is higher than the acceptance criteria. If the value appears as NA or 0, it indicates that the call was not successfully established. Kindly redo the test and verify the call setup time.</t>
+  </si>
+  <si>
+    <t>MT CSFB Call Setup Time (ms) is higher than the acceptance criteria. If the value appears as NA or 0, it indicates that the call was not successfully established. Kindly redo the test and verify the call setup time.</t>
+  </si>
+  <si>
+    <t>CSFB MO Success Rate failed because the Call Setup Time is above the acceptance criteria, or there are blocked/unsuccessful calls, or fewer than 3 successful calls were completed. Kindly redo the test ensuring CST is within limits and at least 3 MO CSFB calls are successfully established.</t>
+  </si>
+  <si>
+    <t>There is a call drop in the failed sector. Kindly exclude the affected logfile, create a new logfile, and redo the test to verify successful call completion with no drops.</t>
+  </si>
+  <si>
+    <t>Reselection Time After CSFB Call Idle to LTE (ms).Fast Return to LTE after CSFB call is not recorded. Exclude the logfile and create a new one. While testing, keep download test files running in the background to ensure fast return to LTE.</t>
+  </si>
+  <si>
+    <t>Volte MO Call Setup Time (ms) is higher than the acceptance criteria. If the value appears as NA or 0, it indicates that the call was not successfully established. Kindly redo the test and verify the call setup time.</t>
+  </si>
+  <si>
+    <t>Volte MT Call Setup Time (ms) is higher than the acceptance criteria. If the value appears as NA or 0, it indicates that the call was not successfully established. Kindly redo the test and verify the call setup time.</t>
+  </si>
+  <si>
+    <t>Add a VoLTE short-call drive across all sectors. Do not disconnect the call manually, as it will be counted as a call drop. Each sector must have at least one successful MO session setup.</t>
+  </si>
+  <si>
+    <t>Do not use WhatsApp for this test. Perform a manual VoLTE video call after running the script.</t>
+  </si>
+  <si>
+    <t>Since the serving cell of the failed sector is different from the recorded PCI, the report is displaying the recorded PCI as the failed sector. Please exclude the current logfile and redo the test with the correct serving PCI.</t>
+  </si>
+  <si>
+    <t>It appears that the PCI recorded in the site database does not match the actual serving PCI observed on the site, or the failed sector has no corresponding drive data. Request you to please verify the serving cells in the DL static along with the PCI details in the site database.</t>
+  </si>
+  <si>
+    <t>These parameters are auto-derived and generally do not fail. As the remark is not available, please check with the report provider or ANTS Support Team.</t>
   </si>
 </sst>
 </file>
@@ -605,35 +596,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -650,6 +625,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -970,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A972072C-E31C-460B-95AC-9B3971175745}">
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -981,21 +974,21 @@
     <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="57.08984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="85.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="89.54296875" style="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>132</v>
+      <c r="A1" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>101</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -1004,15 +997,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>133</v>
+    <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>2</v>
@@ -1020,19 +1013,19 @@
       <c r="E2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>133</v>
+      <c r="F2" s="22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>3</v>
@@ -1040,19 +1033,19 @@
       <c r="E3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>133</v>
+      <c r="F3" s="22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>4</v>
@@ -1060,19 +1053,19 @@
       <c r="E4" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>133</v>
+      <c r="F4" s="22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>5</v>
@@ -1080,19 +1073,19 @@
       <c r="E5" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>133</v>
+      <c r="F5" s="22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>6</v>
@@ -1100,19 +1093,19 @@
       <c r="E6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>133</v>
+      <c r="F6" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>7</v>
@@ -1120,19 +1113,19 @@
       <c r="E7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="17" t="s">
-        <v>65</v>
+      <c r="F7" s="4" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>133</v>
+      <c r="A8" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>8</v>
@@ -1140,19 +1133,19 @@
       <c r="E8" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="17" t="s">
-        <v>66</v>
+      <c r="F8" s="4" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>133</v>
+      <c r="A9" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>9</v>
@@ -1160,19 +1153,19 @@
       <c r="E9" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>133</v>
+      <c r="F9" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>10</v>
@@ -1180,19 +1173,19 @@
       <c r="E10" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>133</v>
+      <c r="F10" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>11</v>
@@ -1200,199 +1193,199 @@
       <c r="E11" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>133</v>
+      <c r="F11" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>133</v>
+      <c r="F12" s="22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>133</v>
+      <c r="F13" s="22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>133</v>
+      <c r="F14" s="22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="25" x14ac:dyDescent="0.35">
+      <c r="A15" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>133</v>
+      <c r="F15" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>133</v>
+      <c r="F16" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>133</v>
+      <c r="F17" s="22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="13" t="s">
         <v>54</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>133</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>133</v>
+      <c r="F19" s="22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="F20" s="17" t="s">
-        <v>78</v>
+      <c r="F20" s="22" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>133</v>
+      <c r="A21" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>21</v>
@@ -1400,19 +1393,19 @@
       <c r="E21" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>79</v>
+      <c r="F21" s="18" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>133</v>
+      <c r="A22" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>22</v>
@@ -1420,19 +1413,19 @@
       <c r="E22" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="20" t="s">
-        <v>80</v>
+      <c r="F22" s="14" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>133</v>
+      <c r="A23" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>23</v>
@@ -1440,19 +1433,19 @@
       <c r="E23" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F23" s="20" t="s">
-        <v>81</v>
+      <c r="F23" s="14" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>133</v>
+      <c r="A24" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>24</v>
@@ -1460,19 +1453,19 @@
       <c r="E24" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F24" s="17" t="s">
-        <v>82</v>
+      <c r="F24" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>133</v>
+      <c r="A25" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>25</v>
@@ -1481,18 +1474,18 @@
         <v>57</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>133</v>
+      <c r="A26" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>26</v>
@@ -1501,18 +1494,18 @@
         <v>57</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>133</v>
+      <c r="A27" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>27</v>
@@ -1520,19 +1513,19 @@
       <c r="E27" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F27" s="17" t="s">
-        <v>85</v>
+      <c r="F27" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>133</v>
+      <c r="A28" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>28</v>
@@ -1540,35 +1533,35 @@
       <c r="E28" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F28" s="17" t="s">
-        <v>86</v>
+      <c r="F28" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>133</v>
+      <c r="A29" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E29" s="6"/>
-      <c r="F29" s="17"/>
+      <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>133</v>
+      <c r="A30" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>30</v>
@@ -1576,79 +1569,79 @@
       <c r="E30" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F30" s="17" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>133</v>
+      <c r="F30" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="25" x14ac:dyDescent="0.35">
+      <c r="A31" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F31" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>133</v>
+      <c r="F31" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A32" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E32" s="18" t="s">
+      <c r="E32" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F32" s="17" t="s">
-        <v>89</v>
+      <c r="F32" s="23" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>133</v>
+      <c r="A33" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E33" s="21" t="s">
+      <c r="E33" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="F33" s="17" t="s">
+      <c r="F33" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>133</v>
+    <row r="34" spans="1:6" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>34</v>
@@ -1656,19 +1649,19 @@
       <c r="E34" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F34" s="17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>133</v>
+      <c r="F34" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="25" x14ac:dyDescent="0.35">
+      <c r="A35" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>35</v>
@@ -1676,501 +1669,501 @@
       <c r="E35" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F35" s="17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>133</v>
+      <c r="F35" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="25" x14ac:dyDescent="0.35">
+      <c r="A36" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E36" s="21" t="s">
+      <c r="E36" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="17" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>133</v>
+      <c r="F36" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="25" x14ac:dyDescent="0.35">
+      <c r="A37" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E37" s="21" t="s">
+      <c r="E37" s="15" t="s">
         <v>60</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>133</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="25" x14ac:dyDescent="0.35">
+      <c r="A38" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E38" s="21" t="s">
+      <c r="E38" s="15" t="s">
         <v>61</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>133</v>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E39" s="21" t="s">
+      <c r="E39" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="F39" s="17" t="s">
-        <v>95</v>
+      <c r="F39" s="22" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="25" x14ac:dyDescent="0.35">
-      <c r="A40" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B40" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>133</v>
+      <c r="A40" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="21" t="s">
+      <c r="E40" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="F40" s="17" t="s">
-        <v>96</v>
+      <c r="F40" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="50" x14ac:dyDescent="0.35">
-      <c r="A41" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B41" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>133</v>
+      <c r="A41" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E41" s="21" t="s">
+      <c r="E41" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="F41" s="17" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B42" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>133</v>
+      <c r="F41" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E42" s="21" t="s">
+      <c r="E42" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="F42" s="17" t="s">
-        <v>98</v>
+      <c r="F42" s="4" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B43" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>133</v>
+      <c r="A43" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E43" s="21" t="s">
+      <c r="E43" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="F43" s="17" t="s">
-        <v>87</v>
+      <c r="F43" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B44" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>133</v>
+      <c r="A44" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E44" s="21" t="s">
+      <c r="E44" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="F44" s="17" t="s">
-        <v>99</v>
+      <c r="F44" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B45" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>133</v>
+      <c r="A45" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E45" s="21" t="s">
+      <c r="E45" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="F45" s="17" t="s">
-        <v>100</v>
+      <c r="F45" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B46" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>133</v>
+      <c r="A46" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E46" s="21" t="s">
+      <c r="E46" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="F46" s="17" t="s">
-        <v>101</v>
+      <c r="F46" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B47" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>133</v>
+      <c r="A47" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E47" s="21" t="s">
+      <c r="E47" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="F47" s="17" t="s">
-        <v>98</v>
+      <c r="F47" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B48" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>133</v>
+      <c r="A48" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E48" s="21" t="s">
+      <c r="E48" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="F48" s="17" t="s">
-        <v>102</v>
+      <c r="F48" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B49" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>133</v>
+      <c r="A49" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>119</v>
+        <v>77</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B50" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>133</v>
+      <c r="A50" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>120</v>
+        <v>78</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B51" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>133</v>
+      <c r="A51" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B52" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>133</v>
+        <v>79</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F51" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="25" x14ac:dyDescent="0.35">
+      <c r="A52" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="F52" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F52" s="21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F53" s="19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F54" s="19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F55" s="19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="25" x14ac:dyDescent="0.35">
+      <c r="A56" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="25" x14ac:dyDescent="0.35">
+      <c r="A58" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E58" s="16"/>
+      <c r="F58" s="9"/>
+    </row>
+    <row r="59" spans="1:6" ht="25" x14ac:dyDescent="0.35">
+      <c r="A59" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F59" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B53" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B54" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="F54" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B55" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C55" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="25" x14ac:dyDescent="0.35">
-      <c r="A56" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B56" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="F56" s="12" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B57" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C57" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E57" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="F57" s="13" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="25" x14ac:dyDescent="0.35">
-      <c r="A58" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B58" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C58" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E58" s="22"/>
-      <c r="F58" s="14"/>
-    </row>
-    <row r="59" spans="1:6" ht="25" x14ac:dyDescent="0.35">
-      <c r="A59" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B59" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C59" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="F59" s="10" t="s">
-        <v>128</v>
-      </c>
-    </row>
     <row r="60" spans="1:6" ht="50" x14ac:dyDescent="0.35">
-      <c r="A60" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B60" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>133</v>
+      <c r="A60" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E60" s="23"/>
-      <c r="F60" s="10"/>
+        <v>88</v>
+      </c>
+      <c r="E60" s="17"/>
+      <c r="F60" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
